--- a/xlsx/country_comparison/comment_keyword_positive.xlsx
+++ b/xlsx/country_comparison/comment_keyword_positive.xlsx
@@ -56,6 +56,9 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
+    <t xml:space="preserve">Empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nothing</t>
   </si>
   <si>
@@ -72,9 +75,6 @@
   </si>
   <si>
     <t xml:space="preserve">Corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty</t>
   </si>
 </sst>
 </file>
@@ -455,43 +455,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0769722894681664</v>
+        <v>0.474382958912649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0323173199926413</v>
+        <v>0.661465379406704</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0271393975234657</v>
+        <v>0.619213855609162</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0119858594027523</v>
+        <v>0.718653077904179</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0209287217995857</v>
+        <v>0.699123724855438</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0797427421450919</v>
+        <v>0.568263429037403</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0328774847829057</v>
+        <v>0.645246378200891</v>
       </c>
       <c r="I2" t="n">
-        <v>0.048330321078416</v>
+        <v>0.657384872305653</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0143718808059912</v>
+        <v>0.699072247882384</v>
       </c>
       <c r="K2" t="n">
-        <v>0.220305312570907</v>
+        <v>0.414192850264813</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0480672304840704</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0548672526707154</v>
+        <v>0.402042003578956</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0854953417813122</v>
+        <v>0.493972753411824</v>
       </c>
     </row>
     <row r="3">
@@ -499,43 +499,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0584434984263638</v>
+        <v>0.076694105499444</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0385153922965894</v>
+        <v>0.0323173199926413</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0448715527200063</v>
+        <v>0.0271393975234657</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0285939348605774</v>
+        <v>0.0119858594027523</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0249686958339627</v>
+        <v>0.0209287217995857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0261593011672415</v>
+        <v>0.0797427421450919</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0408290728299135</v>
+        <v>0.0328774847829057</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0630478921225709</v>
+        <v>0.048330321078416</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0366532821438346</v>
+        <v>0.0143718808059912</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0239311513840183</v>
+        <v>0.220305312570907</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0522142994171681</v>
+        <v>0.0460794745575303</v>
       </c>
       <c r="M3" t="n">
-        <v>0.13117776919282</v>
+        <v>0.0548672526707154</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0909565818320698</v>
+        <v>0.0854953417813122</v>
       </c>
     </row>
     <row r="4">
@@ -543,43 +543,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0531218566802062</v>
+        <v>0.0584846703368328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0509002944878847</v>
+        <v>0.0385153922965894</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0602364423909903</v>
+        <v>0.0448715527200063</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0279149677024095</v>
+        <v>0.0285939348605774</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0596263552340504</v>
+        <v>0.0249686958339627</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0597336422893675</v>
+        <v>0.0261593011672415</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0614955273531362</v>
+        <v>0.0408290728299135</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0506657617476775</v>
+        <v>0.0630478921225709</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0453220880472148</v>
+        <v>0.0366532821438346</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0280269954650683</v>
+        <v>0.0239311513840183</v>
       </c>
       <c r="L4" t="n">
-        <v>0.040452763406527</v>
+        <v>0.0525084921753547</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0185888292630765</v>
+        <v>0.13117776919282</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0739803017703995</v>
+        <v>0.0909565818320698</v>
       </c>
     </row>
     <row r="5">
@@ -587,43 +587,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0338683780891736</v>
+        <v>0.0531584284123687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.025331809777643</v>
+        <v>0.0509002944878847</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0257473393482286</v>
+        <v>0.0602364423909903</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0267882954995236</v>
+        <v>0.0279149677024095</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0175195795419402</v>
+        <v>0.0596263552340503</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0351048342123718</v>
+        <v>0.0597336422893675</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0316774452370636</v>
+        <v>0.0614955273531362</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0208642635125292</v>
+        <v>0.0506657617476775</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0179095670244576</v>
+        <v>0.0453220880472148</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0048953074515604</v>
+        <v>0.0280269954650683</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0275377075624493</v>
+        <v>0.0407140857166648</v>
       </c>
       <c r="M5" t="n">
-        <v>0.13122521787311</v>
+        <v>0.0185888292630765</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0491228741835903</v>
+        <v>0.0739803017703995</v>
       </c>
     </row>
     <row r="6">
@@ -631,43 +631,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0197907305697272</v>
+        <v>0.0338923717916661</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0109296860457397</v>
+        <v>0.025331809777643</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0142817379883159</v>
+        <v>0.0257473393482286</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00580153130414161</v>
+        <v>0.0267882954995236</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00925101670355077</v>
+        <v>0.0175195795419402</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00728772658819937</v>
+        <v>0.0351048342123718</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0306761015195065</v>
+        <v>0.0316774452370636</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00391829685666812</v>
+        <v>0.0208642635125292</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00588811910333217</v>
+        <v>0.0179095670244576</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0842519919712641</v>
+        <v>0.0048953074515604</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0140746366846745</v>
+        <v>0.0277091539062055</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0013074277785911</v>
+        <v>0.13122521787311</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00851440446614129</v>
+        <v>0.0491228741835903</v>
       </c>
     </row>
     <row r="7">
@@ -675,43 +675,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00392570798900853</v>
+        <v>0.0197917773969517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00398359150418561</v>
+        <v>0.0109296860457397</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00367194117586363</v>
+        <v>0.0142817379883159</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00506433468696284</v>
+        <v>0.00580153130414161</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00247983796047947</v>
+        <v>0.00925101670355077</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00189755228820627</v>
+        <v>0.00728772658819937</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0056971952956279</v>
+        <v>0.0306761015195065</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00329082456419541</v>
+        <v>0.00391829685666812</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0111732486072152</v>
+        <v>0.00588811910333217</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.0842519919712641</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00614113599586846</v>
+        <v>0.0140821167599252</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00333590233748943</v>
+        <v>0.0013074277785911</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00451531276518934</v>
+        <v>0.00851440446614129</v>
       </c>
     </row>
     <row r="8">
@@ -719,43 +719,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.00392784933537338</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.00398359150418561</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.00367194117586363</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.00506433468696284</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.00247983796047947</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.00189755228820627</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0056971952956279</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.00329082456419541</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0111732486072152</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.00615643692764775</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.00333590233748943</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.00451531276518934</v>
       </c>
     </row>
   </sheetData>
